--- a/target/classes/com/qa/hubspot/keyword/scenarios/hubspot_scenarios.xlsx
+++ b/target/classes/com/qa/hubspot/keyword/scenarios/hubspot_scenarios.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NaveenKhunteta/Documents/workspace/KeywordDrivenFW/src/main/java/com/qa/hubspot/keyword/Scenarios/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
     <sheet name="login1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="31">
   <si>
     <t>locator</t>
   </si>
@@ -99,14 +94,35 @@
     <t>verify sign up link</t>
   </si>
   <si>
-    <t>linkText=Sign up</t>
+    <t>locatorvalue</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>loginBtn</t>
+  </si>
+  <si>
+    <t>Sign up</t>
+  </si>
+  <si>
+    <t>linkText</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>locatortype</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -223,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -258,7 +274,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -435,42 +451,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="3" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -478,13 +499,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="3" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -492,55 +516,67 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -548,13 +584,16 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -562,13 +601,16 @@
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="3" customFormat="1">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -576,27 +618,33 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -604,39 +652,42 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D9" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="27.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -650,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="3" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -664,7 +715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="3" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -678,7 +729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -692,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -706,7 +757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -720,7 +771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>15</v>
       </c>

--- a/target/classes/com/qa/hubspot/keyword/scenarios/hubspot_scenarios.xlsx
+++ b/target/classes/com/qa/hubspot/keyword/scenarios/hubspot_scenarios.xlsx
@@ -10,7 +10,7 @@
     <sheet name="login" sheetId="2" r:id="rId1"/>
     <sheet name="login1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>locator</t>
   </si>
@@ -34,30 +34,15 @@
     <t>value</t>
   </si>
   <si>
-    <t>id=username</t>
-  </si>
-  <si>
     <t>sendkeys</t>
   </si>
   <si>
-    <t>id=password</t>
-  </si>
-  <si>
-    <t>Test@1234</t>
-  </si>
-  <si>
-    <t>id=loginBtn</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>naveenanimation20@gmail.com</t>
-  </si>
-  <si>
     <t>test step</t>
   </si>
   <si>
@@ -88,41 +73,74 @@
     <t>enter url</t>
   </si>
   <si>
-    <t>http://app.hubspot.com/login</t>
-  </si>
-  <si>
-    <t>verify sign up link</t>
-  </si>
-  <si>
     <t>locatorvalue</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>loginBtn</t>
-  </si>
-  <si>
-    <t>Sign up</t>
-  </si>
-  <si>
-    <t>linkText</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>locatortype</t>
+  </si>
+  <si>
+    <t>verify homepage header</t>
+  </si>
+  <si>
+    <t>get homepage header text</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com/index.php/auth/login</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>txtUsername</t>
+  </si>
+  <si>
+    <t>txtPassword</t>
+  </si>
+  <si>
+    <t>btnLogin</t>
+  </si>
+  <si>
+    <t>//h1[contains(text(),'Dashboard')]</t>
+  </si>
+  <si>
+    <t>isDisplayed</t>
+  </si>
+  <si>
+    <t>className</t>
+  </si>
+  <si>
+    <t>getText</t>
+  </si>
+  <si>
+    <t>panelTrigger</t>
+  </si>
+  <si>
+    <t>Welcome AutoFirstName9968</t>
+  </si>
+  <si>
+    <t>id=btnLogin</t>
+  </si>
+  <si>
+    <t>id=txtUsername</t>
+  </si>
+  <si>
+    <t>id=txtPassword</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,6 +163,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -174,13 +198,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -459,30 +484,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="61.375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -493,181 +518,147 @@
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId1" display="naveenanimation20@gmail.com"/>
     <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E9" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -676,20 +667,20 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="17.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="27.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -703,91 +694,91 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId1" display="naveenanimation20@gmail.com"/>
     <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
